--- a/Mendix/input/data/Global_Material_Data.xlsx
+++ b/Mendix/input/data/Global_Material_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mendix_Workspace\Mendix\input\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\git\Mendix\Mendix\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{88196BE8-16D6-402F-886F-A45C03FB0D50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F634FB-FDDF-4930-B1F6-A85D3F24F30C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{92753D1E-95E7-49CB-AD96-B588CC3DB29F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{92753D1E-95E7-49CB-AD96-B588CC3DB29F}"/>
   </bookViews>
   <sheets>
     <sheet name="YROH" sheetId="1" r:id="rId1"/>
@@ -751,58 +751,58 @@
   <dimension ref="A1:AX4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="17" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="17" style="8" bestFit="1" customWidth="1"/>
-    <col min="39" max="46" width="9.140625" style="8"/>
-    <col min="47" max="47" width="20.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="6"/>
+    <col min="39" max="46" width="9.109375" style="8"/>
+    <col min="47" max="47" width="20.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -952,7 +952,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>90</v>
       </c>
@@ -960,7 +960,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>77</v>
@@ -1078,7 +1078,7 @@
       <c r="AW2" s="7"/>
       <c r="AX2" s="7"/>
     </row>
-    <row r="3" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>90</v>
       </c>
@@ -1204,7 +1204,7 @@
       <c r="AW3" s="7"/>
       <c r="AX3" s="7"/>
     </row>
-    <row r="4" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>91</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>77</v>

--- a/Mendix/input/data/Global_Material_Data.xlsx
+++ b/Mendix/input/data/Global_Material_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\git\Mendix\Mendix\input\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mendix_Workspace\Mendix\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F634FB-FDDF-4930-B1F6-A85D3F24F30C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{88196BE8-16D6-402F-886F-A45C03FB0D50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{92753D1E-95E7-49CB-AD96-B588CC3DB29F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{92753D1E-95E7-49CB-AD96-B588CC3DB29F}"/>
   </bookViews>
   <sheets>
     <sheet name="YROH" sheetId="1" r:id="rId1"/>
@@ -751,58 +751,58 @@
   <dimension ref="A1:AX4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="17" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="17" style="8" bestFit="1" customWidth="1"/>
-    <col min="39" max="46" width="9.109375" style="8"/>
-    <col min="47" max="47" width="20.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.109375" style="6"/>
+    <col min="39" max="46" width="9.140625" style="8"/>
+    <col min="47" max="47" width="20.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -952,7 +952,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>90</v>
       </c>
@@ -960,7 +960,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>77</v>
@@ -1078,7 +1078,7 @@
       <c r="AW2" s="7"/>
       <c r="AX2" s="7"/>
     </row>
-    <row r="3" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>90</v>
       </c>
@@ -1204,7 +1204,7 @@
       <c r="AW3" s="7"/>
       <c r="AX3" s="7"/>
     </row>
-    <row r="4" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>91</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>77</v>
